--- a/20190729/Documents/Submission - 模板要求/每日提交资料/程序员日志 - 1712884樊漆亮.xlsx
+++ b/20190729/Documents/Submission - 模板要求/每日提交资料/程序员日志 - 1712884樊漆亮.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20348"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D236D74-11F1-4908-8FE4-88ED0AC4F5E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4F8BD-A0CB-426D-8F2A-DD1406A90EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3470" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3930" windowWidth="21600" windowHeight="11330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-29" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>希望能讲的内容再多一点.讲课讲的真好,是我大学两年以来见过的最好的老师.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步了解SpringMVC的基础知识, 同时自己进一步了解Junit的更多功能和测试方法,期望通过Junit对Spring进行测试.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暂未发现较大问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望能讲的内容再多一点.讲课讲的真好,是我大学两年以来见过的最好的老师.希望老师能再多讲一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -403,11 +415,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -500,6 +534,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D5494-2185-4935-84FB-01A775729CDF}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1017,57 +1069,75 @@
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43676</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -1086,68 +1156,70 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A13:F14"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190729/Documents/Submission - 模板要求/每日提交资料/程序员日志 - 1712884樊漆亮.xlsx
+++ b/20190729/Documents/Submission - 模板要求/每日提交资料/程序员日志 - 1712884樊漆亮.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20348"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4F8BD-A0CB-426D-8F2A-DD1406A90EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC6A70-8167-44C2-8C6F-F552B548D253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3930" windowWidth="21600" windowHeight="11330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="4390" windowWidth="21600" windowHeight="11330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-29" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>希望能讲的内容再多一点.讲课讲的真好,是我大学两年以来见过的最好的老师.希望老师能再多讲一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步了解spring mvc 控制反转和依赖注入, 了解session 和request传参的方式,了解上传文件的功能.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         代码写得太少了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D5494-2185-4935-84FB-01A775729CDF}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1231,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4EE99-DA1A-4C29-AF2A-7F0CA1984DDE}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1256,21 +1264,29 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>43677</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1287,7 +1303,9 @@
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -1338,7 +1356,7 @@
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
